--- a/Kurasik/doc/Satel/SATEL - wejscia.xlsx
+++ b/Kurasik/doc/Satel/SATEL - wejscia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>KON_001</t>
   </si>
@@ -402,9 +402,6 @@
     <t xml:space="preserve">    OlaŁazienkaDym" number="93"</t>
   </si>
   <si>
-    <t xml:space="preserve">    OlaSalonDym" number="94"</t>
-  </si>
-  <si>
     <t xml:space="preserve">    OlaTarasOtwar" number="95"</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
     <t xml:space="preserve">    StajniaPokójWstr" number="151"</t>
   </si>
   <si>
-    <t xml:space="preserve">    StajniaWarDym" number="152"</t>
-  </si>
-  <si>
     <t xml:space="preserve">    StajniaBox2Otwar" number="153"</t>
   </si>
   <si>
@@ -762,9 +756,6 @@
     <t>DYM_150</t>
   </si>
   <si>
-    <t>DYM_152</t>
-  </si>
-  <si>
     <t>DYM_156</t>
   </si>
   <si>
@@ -792,7 +783,13 @@
     <t xml:space="preserve">    KorytHobbyWstrz" number="18"</t>
   </si>
   <si>
-    <t>było korytSpaWstrz jak 11</t>
+    <t xml:space="preserve">    OlaSypialDym" number="94"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    StajniaWarWstrz" number="152"</t>
+  </si>
+  <si>
+    <t>WST_152</t>
   </si>
 </sst>
 </file>
@@ -814,24 +811,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -852,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,16 +845,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,12 +1169,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1206,7 +1185,7 @@
       <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1217,7 +1196,7 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1228,7 +1207,7 @@
       <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1239,7 +1218,7 @@
       <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1250,7 +1229,7 @@
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1261,7 +1240,7 @@
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1272,7 +1251,7 @@
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1283,7 +1262,7 @@
       <c r="B9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1294,7 +1273,7 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1305,7 +1284,7 @@
       <c r="B11" s="1">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1316,7 +1295,7 @@
       <c r="B12" s="1">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1327,7 +1306,7 @@
       <c r="B13" s="1">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1338,7 +1317,7 @@
       <c r="B14" s="1">
         <v>14</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1349,7 +1328,7 @@
       <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1360,181 +1339,178 @@
       <c r="B16" s="1">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>257</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="B18" s="1">
         <v>18</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="1">
         <v>19</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>21</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>22</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="1">
         <v>24</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B25" s="1">
         <v>25</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="1">
         <v>26</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="1">
         <v>27</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="1">
         <v>28</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="1">
         <v>29</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="1">
         <v>30</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="1">
         <v>32</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>224</v>
+      <c r="D32" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,8 +1520,8 @@
       <c r="B33" s="1">
         <v>33</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>225</v>
+      <c r="D33" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,8 +1536,8 @@
       <c r="B35" s="1">
         <v>35</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>226</v>
+      <c r="D35" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1571,8 +1547,8 @@
       <c r="B36" s="1">
         <v>36</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>227</v>
+      <c r="D36" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1582,8 +1558,8 @@
       <c r="B37" s="1">
         <v>37</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>228</v>
+      <c r="D37" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,8 +1569,8 @@
       <c r="B38" s="1">
         <v>38</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>229</v>
+      <c r="D38" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,8 +1580,8 @@
       <c r="B39" s="1">
         <v>39</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>230</v>
+      <c r="D39" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,8 +1591,8 @@
       <c r="B40" s="1">
         <v>40</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>231</v>
+      <c r="D40" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,14 +1708,14 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="1">
         <v>55</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>198</v>
+      <c r="D55" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1754,8 +1730,8 @@
       <c r="B57" s="1">
         <v>57</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>232</v>
+      <c r="D57" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,8 +1749,8 @@
       <c r="B59" s="1">
         <v>59</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>199</v>
+      <c r="D59" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1784,7 +1760,7 @@
       <c r="B60" s="1">
         <v>60</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1795,8 +1771,8 @@
       <c r="B61" s="1">
         <v>61</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>200</v>
+      <c r="D61" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,8 +1782,8 @@
       <c r="B62" s="1">
         <v>62</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>201</v>
+      <c r="D62" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,8 +1793,8 @@
       <c r="B63" s="1">
         <v>63</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>202</v>
+      <c r="D63" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,8 +1804,8 @@
       <c r="B64" s="1">
         <v>64</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>203</v>
+      <c r="D64" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,8 +1815,8 @@
       <c r="B65" s="1">
         <v>65</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>204</v>
+      <c r="D65" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,8 +1826,8 @@
       <c r="B66" s="1">
         <v>66</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>205</v>
+      <c r="D66" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,7 +1837,7 @@
       <c r="B67" s="1">
         <v>67</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1872,8 +1848,8 @@
       <c r="B68" s="1">
         <v>68</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>206</v>
+      <c r="D68" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,7 +1859,7 @@
       <c r="B69" s="1">
         <v>69</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1894,8 +1870,8 @@
       <c r="B70" s="1">
         <v>70</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>207</v>
+      <c r="D70" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +1881,7 @@
       <c r="B71" s="1">
         <v>71</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1916,8 +1892,8 @@
       <c r="B72" s="1">
         <v>72</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>208</v>
+      <c r="D72" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,8 +1903,8 @@
       <c r="B73" s="1">
         <v>73</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>209</v>
+      <c r="D73" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,8 +1914,8 @@
       <c r="B74" s="1">
         <v>74</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>233</v>
+      <c r="D74" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,8 +1925,8 @@
       <c r="B75" s="1">
         <v>75</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>234</v>
+      <c r="D75" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,8 +1936,8 @@
       <c r="B76" s="1">
         <v>76</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>235</v>
+      <c r="D76" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,8 +1955,8 @@
       <c r="B78" s="1">
         <v>78</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>236</v>
+      <c r="D78" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,8 +1966,8 @@
       <c r="B79" s="1">
         <v>79</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>237</v>
+      <c r="D79" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,192 +1977,189 @@
       <c r="B80" s="1">
         <v>80</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B81" s="1">
         <v>81</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="1">
         <v>82</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B83" s="1">
         <v>83</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B84" s="1">
         <v>84</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B85" s="1">
         <v>85</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B86" s="1">
         <v>86</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B87" s="1">
         <v>87</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B88" s="1">
         <v>88</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B89" s="1">
         <v>89</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B90" s="1">
         <v>90</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B91" s="1">
         <v>91</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B92" s="1">
         <v>92</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B93" s="1">
         <v>93</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="B94" s="1">
         <v>94</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E94">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B95" s="1">
         <v>95</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96" s="1">
         <v>96</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>213</v>
+      <c r="D96" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97" s="1">
         <v>97</v>
@@ -2194,7 +2167,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B98" s="1">
         <v>98</v>
@@ -2202,7 +2175,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B99" s="1">
         <v>99</v>
@@ -2210,7 +2183,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B100" s="1">
         <v>100</v>
@@ -2218,7 +2191,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101" s="1">
         <v>101</v>
@@ -2226,7 +2199,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B102" s="1">
         <v>102</v>
@@ -2234,7 +2207,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B103" s="1">
         <v>103</v>
@@ -2242,7 +2215,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" s="1">
         <v>104</v>
@@ -2250,95 +2223,95 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="1">
         <v>105</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B106" s="1">
         <v>106</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>214</v>
+      <c r="D106" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B107" s="1">
         <v>107</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B108" s="1">
         <v>108</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B109" s="1">
         <v>109</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B110" s="1">
         <v>110</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B111" s="1">
         <v>111</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>215</v>
+      <c r="D111" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B112" s="1">
         <v>112</v>
       </c>
-      <c r="D112" s="5" t="s">
-        <v>216</v>
+      <c r="D112" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B113" s="1">
         <v>113</v>
@@ -2346,7 +2319,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B114" s="1">
         <v>114</v>
@@ -2354,7 +2327,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B115" s="1">
         <v>115</v>
@@ -2362,7 +2335,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B116" s="1">
         <v>116</v>
@@ -2370,7 +2343,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B117" s="1">
         <v>117</v>
@@ -2378,7 +2351,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B118" s="1">
         <v>118</v>
@@ -2386,7 +2359,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B119" s="1">
         <v>119</v>
@@ -2394,7 +2367,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120" s="1">
         <v>120</v>
@@ -2412,35 +2385,35 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B123" s="1">
         <v>123</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>217</v>
+      <c r="D123" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B124" s="1">
         <v>124</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>218</v>
+      <c r="D124" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B125" s="1">
         <v>125</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>219</v>
+      <c r="D125" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,7 +2433,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B129" s="1">
         <v>129</v>
@@ -2468,7 +2441,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B130" s="1">
         <v>130</v>
@@ -2476,7 +2449,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B131" s="1">
         <v>131</v>
@@ -2484,7 +2457,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" s="1">
         <v>132</v>
@@ -2492,7 +2465,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" s="1">
         <v>133</v>
@@ -2500,7 +2473,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B134" s="1">
         <v>134</v>
@@ -2518,7 +2491,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B137" s="1">
         <v>137</v>
@@ -2526,7 +2499,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B138" s="1">
         <v>138</v>
@@ -2534,7 +2507,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B139" s="1">
         <v>139</v>
@@ -2542,7 +2515,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140" s="1">
         <v>140</v>
@@ -2550,7 +2523,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B141" s="1">
         <v>141</v>
@@ -2558,7 +2531,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B142" s="1">
         <v>142</v>
@@ -2566,7 +2539,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B143" s="1">
         <v>143</v>
@@ -2574,180 +2547,177 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B144" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B145" s="1">
         <v>145</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D145" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B146" s="1">
         <v>146</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D146" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B147" s="1">
         <v>147</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D147" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B148" s="1">
         <v>148</v>
       </c>
-      <c r="D148" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D148" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B149" s="1">
         <v>149</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D149" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B150" s="1">
         <v>150</v>
       </c>
-      <c r="D150" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D150" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B151" s="1">
         <v>151</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D151" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="B152" s="1">
         <v>152</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E152">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D152" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B153" s="1">
         <v>153</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B154" s="1">
         <v>154</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B155" s="1">
         <v>155</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B156" s="1">
         <v>156</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D156" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B157" s="1">
         <v>157</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D157" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B158" s="1">
         <v>158</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D158" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B159" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B160" s="1">
         <v>160</v>
@@ -3155,24 +3125,24 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B241" s="1">
         <v>241</v>
       </c>
-      <c r="D241" s="5" t="s">
-        <v>252</v>
+      <c r="D241" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B242" s="1">
         <v>242</v>
       </c>
-      <c r="D242" s="5" t="s">
-        <v>253</v>
+      <c r="D242" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,7 +3157,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B245" s="1">
         <v>245</v>
@@ -3195,7 +3165,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B246" s="1">
         <v>246</v>

--- a/Kurasik/doc/Satel/SATEL - wejscia.xlsx
+++ b/Kurasik/doc/Satel/SATEL - wejscia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>KON_001</t>
   </si>
@@ -790,6 +790,147 @@
   </si>
   <si>
     <t>WST_152</t>
+  </si>
+  <si>
+    <t>BAR_041</t>
+  </si>
+  <si>
+    <t>BAR_043</t>
+  </si>
+  <si>
+    <t>BAR_045</t>
+  </si>
+  <si>
+    <t>BAR_047</t>
+  </si>
+  <si>
+    <t>BAR_049</t>
+  </si>
+  <si>
+    <t>BAR_051</t>
+  </si>
+  <si>
+    <t>BAR_053</t>
+  </si>
+  <si>
+    <t>ERR_042</t>
+  </si>
+  <si>
+    <t>ERR_044</t>
+  </si>
+  <si>
+    <t>ERR_046</t>
+  </si>
+  <si>
+    <t>ERR_048</t>
+  </si>
+  <si>
+    <t>ERR_050</t>
+  </si>
+  <si>
+    <t>ERR_052</t>
+  </si>
+  <si>
+    <t>ERR_054</t>
+  </si>
+  <si>
+    <t>BAR_098</t>
+  </si>
+  <si>
+    <t>BAR_100</t>
+  </si>
+  <si>
+    <t>BAR_102</t>
+  </si>
+  <si>
+    <t>BAR_104</t>
+  </si>
+  <si>
+    <t>ERR_097</t>
+  </si>
+  <si>
+    <t>ERR_099</t>
+  </si>
+  <si>
+    <t>ERR_101</t>
+  </si>
+  <si>
+    <t>ERR_103</t>
+  </si>
+  <si>
+    <t>BAR_113</t>
+  </si>
+  <si>
+    <t>BAR_115</t>
+  </si>
+  <si>
+    <t>BAR_117</t>
+  </si>
+  <si>
+    <t>BAR_119</t>
+  </si>
+  <si>
+    <t>ERR_114</t>
+  </si>
+  <si>
+    <t>ERR_116</t>
+  </si>
+  <si>
+    <t>ERR_118</t>
+  </si>
+  <si>
+    <t>ERR_120</t>
+  </si>
+  <si>
+    <t>BAR_129</t>
+  </si>
+  <si>
+    <t>BAR_131</t>
+  </si>
+  <si>
+    <t>BAR_133</t>
+  </si>
+  <si>
+    <t>ERR_130</t>
+  </si>
+  <si>
+    <t>ERR_132</t>
+  </si>
+  <si>
+    <t>ERR_134</t>
+  </si>
+  <si>
+    <t>BAR_137</t>
+  </si>
+  <si>
+    <t>BAR_139</t>
+  </si>
+  <si>
+    <t>BAR_141</t>
+  </si>
+  <si>
+    <t>BAR_143</t>
+  </si>
+  <si>
+    <t>ERR_138</t>
+  </si>
+  <si>
+    <t>ERR_140</t>
+  </si>
+  <si>
+    <t>ERR_142</t>
+  </si>
+  <si>
+    <t>ERR_144</t>
+  </si>
+  <si>
+    <t>BAR_159</t>
+  </si>
+  <si>
+    <t>BAR_160</t>
+  </si>
+  <si>
+    <t>SZA_245</t>
   </si>
 </sst>
 </file>
@@ -811,7 +952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -821,6 +962,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,6 +996,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,17 +1304,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A245" sqref="A245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,6 +1498,7 @@
       <c r="B17" s="1">
         <v>17</v>
       </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1528,6 +1680,7 @@
       <c r="B34" s="1">
         <v>34</v>
       </c>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1596,115 +1749,157 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B41" s="1">
         <v>41</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="1">
         <v>42</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B43" s="1">
         <v>43</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="1">
         <v>44</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="1">
         <v>45</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="1">
         <v>46</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="1">
         <v>47</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="1">
         <v>48</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="1">
         <v>49</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B50" s="1">
         <v>50</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="1">
         <v>51</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B52" s="1">
         <v>52</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B53" s="1">
         <v>53</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B54" s="1">
         <v>54</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,6 +1917,7 @@
       <c r="B56" s="1">
         <v>56</v>
       </c>
+      <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -1741,6 +1937,7 @@
       <c r="B58" s="1">
         <v>58</v>
       </c>
+      <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1947,6 +2144,7 @@
       <c r="B77" s="1">
         <v>77</v>
       </c>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -2158,67 +2356,91 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B97" s="1">
         <v>97</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B98" s="1">
         <v>98</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B99" s="1">
         <v>99</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B100" s="1">
         <v>100</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B101" s="1">
         <v>101</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B102" s="1">
         <v>102</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B103" s="1">
         <v>103</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B104" s="1">
         <v>104</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,78 +2532,104 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B113" s="1">
         <v>113</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B114" s="1">
         <v>114</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B115" s="1">
         <v>115</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B116" s="1">
         <v>116</v>
       </c>
+      <c r="D116" s="2" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B117" s="1">
         <v>117</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B118" s="1">
         <v>118</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B119" s="1">
         <v>119</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B120" s="1">
         <v>120</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>121</v>
       </c>
+      <c r="D121" s="5"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>122</v>
       </c>
+      <c r="D122" s="5"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -2420,137 +2668,184 @@
       <c r="B126" s="1">
         <v>126</v>
       </c>
+      <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>127</v>
       </c>
+      <c r="D127" s="5"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B129" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="D129" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B130" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="D130" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B131" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="D131" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B132" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="D132" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B133" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B134" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D134" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B137" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="D137" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B138" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="D138" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B139" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="D139" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B140" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="D140" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B141" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="D141" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B142" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="D142" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B143" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="D143" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B144" s="1">
         <v>144</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2708,420 +3003,506 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B159" s="1">
         <v>159</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B160" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D160" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D161" s="5"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D162" s="5"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D163" s="5"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D164" s="5"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D165" s="5"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D166" s="5"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D167" s="5"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D168" s="5"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D169" s="5"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D171" s="5"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D172" s="5"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D173" s="5"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D174" s="5"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D175" s="5"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D176" s="5"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D177" s="5"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D178" s="5"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D179" s="5"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D180" s="5"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D181" s="5"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D182" s="5"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D183" s="5"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D184" s="5"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D185" s="5"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D186" s="5"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D187" s="5"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D188" s="5"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D189" s="5"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D190" s="5"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D191" s="5"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D192" s="5"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D193" s="5"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D194" s="5"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D195" s="5"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D196" s="5"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D197" s="5"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D198" s="5"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D199" s="5"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D200" s="5"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D201" s="5"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D202" s="5"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D203" s="5"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D204" s="5"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D205" s="5"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D206" s="5"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D207" s="5"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D208" s="5"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D209" s="5"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D210" s="5"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D211" s="5"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D213" s="5"/>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D214" s="5"/>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D215" s="5"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D216" s="5"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D217" s="5"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D218" s="5"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D219" s="5"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D220" s="5"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D221" s="5"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D222" s="5"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D223" s="5"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D224" s="5"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D225" s="5"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D226" s="5"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D227" s="5"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D228" s="5"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D229" s="5"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D230" s="5"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D231" s="5"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D232" s="5"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D233" s="5"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D234" s="5"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D235" s="5"/>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D236" s="5"/>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D237" s="5"/>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D238" s="5"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D239" s="5"/>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>240</v>
       </c>
+      <c r="D240" s="5"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
@@ -3149,18 +3530,23 @@
       <c r="B243" s="1">
         <v>243</v>
       </c>
+      <c r="D243" s="5"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>244</v>
       </c>
+      <c r="D244" s="5"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B245" s="1">
         <v>245</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -3170,56 +3556,67 @@
       <c r="B246" s="1">
         <v>246</v>
       </c>
+      <c r="D246" s="5"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>247</v>
       </c>
+      <c r="D247" s="5"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>248</v>
       </c>
+      <c r="D248" s="5"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>249</v>
       </c>
+      <c r="D249" s="5"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>250</v>
       </c>
+      <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>251</v>
       </c>
+      <c r="D251" s="5"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>252</v>
       </c>
+      <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>253</v>
       </c>
+      <c r="D253" s="5"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>254</v>
       </c>
+      <c r="D254" s="5"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>255</v>
       </c>
+      <c r="D255" s="5"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>256</v>
       </c>
+      <c r="D256" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kurasik/doc/Satel/SATEL - wejscia.xlsx
+++ b/Kurasik/doc/Satel/SATEL - wejscia.xlsx
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kurasik/doc/Satel/SATEL - wejscia.xlsx
+++ b/Kurasik/doc/Satel/SATEL - wejscia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
   <si>
     <t>KON_001</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>SZA_245</t>
+  </si>
+  <si>
+    <t>BLK_246</t>
   </si>
 </sst>
 </file>
@@ -1304,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="D153" sqref="D153"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3559,9 @@
       <c r="B246" s="1">
         <v>246</v>
       </c>
-      <c r="D246" s="5"/>
+      <c r="D246" s="2" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
